--- a/rider/weekly/2017_13.xlsx
+++ b/rider/weekly/2017_13.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>205</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>220.05</c:v>
+                  <c:v>226.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.95</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>212.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.57</c:v>
+                  <c:v>239.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238.59</c:v>
+                  <c:v>241.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.57</c:v>
+                  <c:v>113.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.67</c:v>
+                  <c:v>94.23999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>220.05</v>
+        <v>226.75</v>
       </c>
       <c r="E2">
         <v>112.07</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D3">
-        <v>211.95</v>
+        <v>211.64</v>
       </c>
       <c r="E3">
         <v>112.23</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>212.32</v>
       </c>
       <c r="E4">
         <v>112.39</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D5">
-        <v>235.57</v>
+        <v>239.33</v>
       </c>
       <c r="E5">
         <v>112.56</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D6">
-        <v>238.59</v>
+        <v>241.59</v>
       </c>
       <c r="E6">
         <v>112.72</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>113.57</v>
+        <v>113.83</v>
       </c>
       <c r="E7">
         <v>112.88</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>94.67</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="E8">
         <v>113.04</v>
